--- a/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-7,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-23,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,99%</t>
+          <t>-21,04%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 7,57</t>
+          <t>-19,78; 6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 6,54</t>
+          <t>-18,51; 5,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 29,07</t>
+          <t>-49,94; 24,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 26,18</t>
+          <t>-46,48; 23,14</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-3,23%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 6,01</t>
+          <t>-7,26; 7,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 3,73</t>
+          <t>-7,54; 6,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 25,82</t>
+          <t>-23,66; 35,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 16,31</t>
+          <t>-24,8; 30,04</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>17,71%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 8,82</t>
+          <t>-3,66; 11,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 9,56</t>
+          <t>-3,29; 9,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 50,22</t>
+          <t>-16,23; 98,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 51,17</t>
+          <t>-14,58; 65,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,84</t>
+          <t>-1,82; 7,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,71</t>
+          <t>-3,08; 8,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 20,28</t>
+          <t>-6,44; 30,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 16,06</t>
+          <t>-10,99; 35,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 4,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 4,15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 21,28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; 17,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-23,84%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-21,04%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.971151862200609</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.70830972807698</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.2383590824427881</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2496276926354992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,78; 6,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,51; 5,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-49,94; 24,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-46,48; 23,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.78413391933012</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.5286185693552</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4993968902163246</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4895840103252617</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.826183581151566</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.840403088027618</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.2443899052847169</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1511438916728535</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 7,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,54; 6,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-23,66; 35,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,8; 30,04</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.0567293476448516</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.773812907816441</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.002167922951868106</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.06455704660791103</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>27,93%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.258263350669204</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.523531531027785</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2365950895831458</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2650018883526379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 11,43</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 9,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,23; 98,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,58; 65,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.637945947941513</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.043962373083107</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3582956704279014</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2633630146930716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.552401380217836</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.051189887378303</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.2792882080894006</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2141867454028697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 7,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 8,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 30,23</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 35,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.663183226078771</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.47984541819363</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1622790391035664</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1533265998949238</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.42837947737024</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.85215980545914</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.9896380469131433</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.7192662265440366</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 4,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 4,15</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 21,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,14; 17,38</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.1697562056193452</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.7305764386488556</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.007064229517094381</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02857670286624052</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.32713485420543</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.467181860033713</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.168950456200579</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1994206615268936</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.412441295379667</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.897362526410385</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2540673787193608</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1700975676107634</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
